--- a/src/main/resources/assets/linemap.xlsx
+++ b/src/main/resources/assets/linemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mss\StudioProjects\makar2\MAKAR\app\src\main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eun/Downloads/dev/src/main/resources/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7C6943-E1E9-416D-865D-7C091063E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D76D495-2BF0-CC4F-8CF4-BED99398EDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표준데이터 노선(전체)" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>노선</t>
@@ -45,7 +45,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -55,9 +55,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>기점부터</t>
@@ -66,7 +66,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -76,9 +76,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>종점까지</t>
@@ -87,7 +87,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -97,9 +97,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>정차하는</t>
@@ -108,7 +108,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -118,9 +118,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>역사에</t>
@@ -129,7 +129,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -139,9 +139,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>부여되는</t>
@@ -150,7 +150,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -160,9 +160,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>일련번호</t>
@@ -171,7 +171,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -181,9 +181,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>자리와</t>
@@ -192,7 +192,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -202,9 +202,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>역사명</t>
@@ -213,7 +213,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -223,9 +223,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>모두</t>
@@ -234,7 +234,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -244,19 +244,42 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">표기
+          <t>표기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -266,9 +289,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>양촌역</t>
@@ -277,7 +300,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -287,9 +310,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>구래역</t>
@@ -298,7 +321,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -308,9 +331,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>마산역</t>
@@ -319,7 +342,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -506,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
   <si>
     <t>노선번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -637,9 +660,6 @@
   </si>
   <si>
     <t>남태령</t>
-  </si>
-  <si>
-    <t>409-당고개,410-상계,411-노원,412-창동,413-쌍문,414-수유(강북구청),415-미아,416-미아사거리,417-길음,418-성신여대입구(돈암),419-한성대입구(삼선교),420-혜화,421-동대문,422-동대문역사문화공원,423-충무로,424-명동,425-회현(남대문시장),426-서울역,427-숙대입구(갈월),428-삼각지,429-신용산,430-이촌(국립중앙박물관),431-동작(현충원),432-총신대입구(이수),433-사당,434-남태령</t>
   </si>
   <si>
     <t>S1105</t>
@@ -1087,6 +1107,76 @@
   </si>
   <si>
     <t>031-820-1000</t>
+  </si>
+  <si>
+    <t>S1108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>610-응암,611-역촌,612-불광,613-독바위,614-연신내,615-구산,610-응암,616-새절(신사),617-증산(명지대앞),618-디지털미디어시티,619-월드컵경기장(성산),620-마포구청,621-망원,622-합정,623-상수,624-광흥창(서강),625-대흥(서강대앞),626-공덕,627-효창공원앞,628-삼각지,629-녹사평(용산구청),630-이태원,631-한강진,632-버티고개,633-약수,634-청구,635-신당,636-동묘앞,637-창신,638-보문,639-안암(고대병원앞),640-고려대(종암),641-월곡(동덕여대),642-상월곡(한국과학기술연구원),643-돌곶이,644-석계,645-태릉입구,646-화랑대(서울여대입구),647-봉화산(서울의료원),648-신내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4101-개화,4102-김포공항,4103-공항시장,4104-신방화,4105-마곡나루,4106-양천향교,4107-가양,4108-증미,4109-등촌,4110-염창,4111-신목동,4112-선유도,4113-당산,4114-국회의사당,4115-여의도,4116-샛강,4117-노량진,4118-노들,4119-흑석(중앙대입구),4120-동작(현충원),4121-구반포,4122-신반포,4123-고속터미널,4124-사평,4125-신논현,4126-언주,4127-선정릉,4128-삼성중앙,4129-봉은사,4130-종합운동장,4131-삼전,4132-석촌고분,4133-석촌,4134-송파나루,4135-한성백제,4136-올림픽공원,4137-둔촌오륜,4138-중앙보훈병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1450-선바위역, 1451-경마공원역, 1452-대공원역, 1453-과천역, 1454-정부과천청사역, 1455-인덕원역, 1456-평촌역, 1457-범계역, 1751-산본역, 1763-수리산역, 1752-대야미역, 1753-반월역, 1754-상록수역, 1755-한대앞역, 1756-중앙역, 1757-고잔역, 1758-초지역, 1759-안산역, 1760-신길온천역, 1761-정왕역, 1762-오이도역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1949-지축역, 1950-삼송역, 1948-원흥역, 1951-원당역, 1952-화정역, 1953-대곡역, 1954-백석역, 1955-마두역, 1956-정발산역, 1957-주엽역, 1958-대화역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510-방화,511-개화산,512-김포공항,513-송정,514-마곡,515-발산,516-우장산,517-화곡,518-까치산,519-신정(은행정),520-목동,521-오목교(목동운동장앞),522-양평,523-영등포구청,524-영등포시장,525-신길,526-여의도,527-여의나루,528-마포,529-공덕,530-애오개,531-충정로(경기대입구),532-서대문,533-광화문(세종문화회관),534-종로3가(탑골공원),535-을지로4가,536-동대문역사문화공원,537-청구,538-신금호,539-행당,540-왕십리,541-마장,542-답십리,543-장한평,544-군자(능동),545-아차산(어린이대공원후문),546-광나루(장신대),547-천호(풍납토성),548-강동,P549-둔촌동,P550-올림픽공원(한국체대),P551-방이,P552-오금,P553-개롱,P554-거여,P555-마천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>211-성수,212-건대입구,213-구의(광진구청),214-강변(동서울터미널),215-잠실나루,216-잠실(송파구청),217-잠실새내,218-종합운동장,219-삼성(무역센터),220-선릉,221-역삼,222-강남,223-교대(법원·검찰청),224-서초,225-방배,226-사당,227-낙성대,228-서울대입구(관악구청),229-봉천,230-신림,231-신대방,232-구로디지털단지,233-대림(구로구청),234-신도림,235-문래,236-영등포구청,237-당산,238-합정,239-홍대입구,240-신촌,241-이대,242-아현,243-충정로(경기대입구),201-시청,202-을지로입구,203-을지로3가,204-을지로4가,205-동대문역사문화공원,206-신당,207-상왕십리,208-왕십리,209-한양대,210-뚝섬,211-성수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>211-성수,211-용답,211-신답,211-용두(동대문구청),211-신설동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>234-신도림,234-도림천,234-양천구청,234-신정네거리,234-까치산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014-청량리역, 1015-회기역, 1016-외대앞역, 1017-신이문역, 1018-석계역, 1019-광운대역, 1020-월계역, 1021-녹천역, 1022-창동역, 1901-방학역, 1902-도봉역, 1903-도봉산역, 1904-망월사역, 1905-회룡역, 1906-의정부역, 1907-가능역, 1908-녹양역, 1909-양주역, 1910-덕계역, 1911-덕정역, 1912-지행역, 1913-동두천중앙역, 1914-보산역, 1915-동두천역, 1916-소요산역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1813-구일역, 1801-개봉역, 1802-오류동역, 1821-온수역, 1803-역곡역, 1814-소사역, 1804-부천역, 1822-중동역, 1805-송내역, 1815-부개역, 1806-부평역, 1807-백운역, 1808-동암역, 1816-간석역, 1809-주안역, 1823-도화역, 1810-제물포역, 1817-도원역, 1811-동인천역, 1812-인천역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980-김포공항역, 1981-원종역, 1982-부천종합운동장역, 4804-소사(소시)역, 4805-소새울역, 4806-시흥대야역, 4807-신천역, 4808-신현역, 4809-시흥시청역, 4810-시흥능곡역, 4811-달미역, 4812-선부역, 4813-초지(소시)역, 4814-시우역, 4815-원시역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1285-임진강역, 1286-운천역, 1284-문산역, 1283-파주역, 1282-월롱역, 1280-금촌역, 1279-금릉역, 1278-운정역, 1277-야당역, 1276-탄현역, 1275-일산역, 1274-풍산역, 1273-백마역, 1272-곡산역, 1271-능곡역, 1270-행신역, 1269-강매역, 1268-화전역, 1267-수색역, 1266-디엠시역, 1264-홍대입구(경의선)역, 1263-서강대역, 1262-공덕(경의선)역, 1261-효창공원앞역, 1265-가좌역, 1252-신촌역, 1251-서울(경의선)역, 1201-중랑역, 1202-상봉역, 1203-망우역, 1204-양원역, 1205-구리역, 1206-도농역, 1207-양정역, 1208-덕소역, 1209-도심역, 1210-팔당역, 1211-운길산역, 1212-양수역, 1213-신원역, 1214-국수역, 1215-아신역, 1216-오빈역, 1217-양평역, 1218-원덕역, 1219-용문역, 1220-지평역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311-신내역, 1312-갈매역, 1313-별내역, 1314-퇴계원역, 1315-사릉역, 1316-금곡역, 1317-평내호평역, 1318-천마산역, 1319-마석역, 1320-대성리역, 1321-청평역, 1322-상천역, 1323-가평역, 1324-굴봉산역, 1325-백양리역, 1326-강촌역, 1327-김유정역, 1328-남춘천역, 1329-춘천역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>124-청량리(서울시립대입구),125-제기동,126-신설동,127-동묘앞,128-동대문,129-종로5가,130-종로3가,131-종각,132-시청,133-서울역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-서울역, 1002-남영역, 1003-용산역, 1004-노량진역, 1005-대방역, 1032-신길역, 1006-영등포역, 1007-신도림역, 1701-구로역</t>
+  </si>
+  <si>
+    <t>1001-서울역, 1002-남영역, 1003-용산역, 1004-노량진역, 1005-대방역, 1032-신길역, 1006-영등포역, 1007-신도림역, 1701-구로역, 1702-가산디지털단지역, 1714-독산역, 1750-광명역, 1703-금천구청역, 1704-석수역, 1705-관악역, 1706-안양역, 1707-명학역, 1708-금정역, 1709-군포역, 1729-당정역, 1710-의왕역, 1711-성균관대역, 1712-화서역, 1713-수원역, 1715-세류역, 1716-병점역, 1749-서동탄역, 1717-세마역, 1718-오산대역, 1719-오산역, 1720-진위역, 1721-송탄역, 1722-서정리역, 1723-평택지제역, 1724-평택역, 1725-성환역, 1726-직산역, 1727-두정역, 1728-천안역, 1401-봉명역, 1402-쌍용(나사렛대)역, 1403-아산역, 1404-탕정역, 1405-배방역, 1407-온양온천역, 1408-신창(순천향대)역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1702-가산디지털단지역, 1714-독산역, 1750-광명역, 1703-금천구청역, 1704-석수역, 1705-관악역, 1706-안양역, 1707-명학역, 1708-금정역, 1709-군포역, 1729-당정역, 1710-의왕역, 1711-성균관대역, 1712-화서역, 1713-수원역, 1715-세류역, 1716-병점역, 1749-서동탄역, 1717-세마역, 1718-오산대역, 1719-오산역, 1720-진위역, 1721-송탄역, 1722-서정리역, 1723-평택지제역, 1724-평택역, 1725-성환역, 1726-직산역, 1727-두정역, 1728-천안역, 1401-봉명역, 1402-쌍용(나사렛대)역, 1403-아산역, 1404-탕정역, 1405-배방역, 1407-온양온천역, 1408-신창(순천향대)역</t>
   </si>
   <si>
     <r>
@@ -1100,90 +1190,61 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>∙신장),558-하남검단산,</t>
+      <t>∙신장),558-하남검단산</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P549-둔촌동,P550-올림픽공원(한국체대),P551-방이,P552-오금,P553-개롱,P554-거여,P555-마천</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>610-응암,611-역촌,612-불광,613-독바위,614-연신내,615-구산,610-응암,616-새절(신사),617-증산(명지대앞),618-디지털미디어시티,619-월드컵경기장(성산),620-마포구청,621-망원,622-합정,623-상수,624-광흥창(서강),625-대흥(서강대앞),626-공덕,627-효창공원앞,628-삼각지,629-녹사평(용산구청),630-이태원,631-한강진,632-버티고개,633-약수,634-청구,635-신당,636-동묘앞,637-창신,638-보문,639-안암(고대병원앞),640-고려대(종암),641-월곡(동덕여대),642-상월곡(한국과학기술연구원),643-돌곶이,644-석계,645-태릉입구,646-화랑대(서울여대입구),647-봉화산(서울의료원),648-신내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4101-개화,4102-김포공항,4103-공항시장,4104-신방화,4105-마곡나루,4106-양천향교,4107-가양,4108-증미,4109-등촌,4110-염창,4111-신목동,4112-선유도,4113-당산,4114-국회의사당,4115-여의도,4116-샛강,4117-노량진,4118-노들,4119-흑석(중앙대입구),4120-동작(현충원),4121-구반포,4122-신반포,4123-고속터미널,4124-사평,4125-신논현,4126-언주,4127-선정릉,4128-삼성중앙,4129-봉은사,4130-종합운동장,4131-삼전,4132-석촌고분,4133-석촌,4134-송파나루,4135-한성백제,4136-올림픽공원,4137-둔촌오륜,4138-중앙보훈병원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1450-선바위역, 1451-경마공원역, 1452-대공원역, 1453-과천역, 1454-정부과천청사역, 1455-인덕원역, 1456-평촌역, 1457-범계역, 1751-산본역, 1763-수리산역, 1752-대야미역, 1753-반월역, 1754-상록수역, 1755-한대앞역, 1756-중앙역, 1757-고잔역, 1758-초지역, 1759-안산역, 1760-신길온천역, 1761-정왕역, 1762-오이도역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1949-지축역, 1950-삼송역, 1948-원흥역, 1951-원당역, 1952-화정역, 1953-대곡역, 1954-백석역, 1955-마두역, 1956-정발산역, 1957-주엽역, 1958-대화역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510-방화,511-개화산,512-김포공항,513-송정,514-마곡,515-발산,516-우장산,517-화곡,518-까치산,519-신정(은행정),520-목동,521-오목교(목동운동장앞),522-양평,523-영등포구청,524-영등포시장,525-신길,526-여의도,527-여의나루,528-마포,529-공덕,530-애오개,531-충정로(경기대입구),532-서대문,533-광화문(세종문화회관),534-종로3가(탑골공원),535-을지로4가,536-동대문역사문화공원,537-청구,538-신금호,539-행당,540-왕십리,541-마장,542-답십리,543-장한평,544-군자(능동),545-아차산(어린이대공원후문),546-광나루(장신대),547-천호(풍납토성),548-강동,P549-둔촌동,P550-올림픽공원(한국체대),P551-방이,P552-오금,P553-개롱,P554-거여,P555-마천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>211-성수,212-건대입구,213-구의(광진구청),214-강변(동서울터미널),215-잠실나루,216-잠실(송파구청),217-잠실새내,218-종합운동장,219-삼성(무역센터),220-선릉,221-역삼,222-강남,223-교대(법원·검찰청),224-서초,225-방배,226-사당,227-낙성대,228-서울대입구(관악구청),229-봉천,230-신림,231-신대방,232-구로디지털단지,233-대림(구로구청),234-신도림,235-문래,236-영등포구청,237-당산,238-합정,239-홍대입구,240-신촌,241-이대,242-아현,243-충정로(경기대입구),201-시청,202-을지로입구,203-을지로3가,204-을지로4가,205-동대문역사문화공원,206-신당,207-상왕십리,208-왕십리,209-한양대,210-뚝섬,211-성수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>211-성수,211-용답,211-신답,211-용두(동대문구청),211-신설동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>234-신도림,234-도림천,234-양천구청,234-신정네거리,234-까치산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014-청량리역, 1015-회기역, 1016-외대앞역, 1017-신이문역, 1018-석계역, 1019-광운대역, 1020-월계역, 1021-녹천역, 1022-창동역, 1901-방학역, 1902-도봉역, 1903-도봉산역, 1904-망월사역, 1905-회룡역, 1906-의정부역, 1907-가능역, 1908-녹양역, 1909-양주역, 1910-덕계역, 1911-덕정역, 1912-지행역, 1913-동두천중앙역, 1914-보산역, 1915-동두천역, 1916-소요산역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1813-구일역, 1801-개봉역, 1802-오류동역, 1821-온수역, 1803-역곡역, 1814-소사역, 1804-부천역, 1822-중동역, 1805-송내역, 1815-부개역, 1806-부평역, 1807-백운역, 1808-동암역, 1816-간석역, 1809-주안역, 1823-도화역, 1810-제물포역, 1817-도원역, 1811-동인천역, 1812-인천역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1980-김포공항역, 1981-원종역, 1982-부천종합운동장역, 4804-소사(소시)역, 4805-소새울역, 4806-시흥대야역, 4807-신천역, 4808-신현역, 4809-시흥시청역, 4810-시흥능곡역, 4811-달미역, 4812-선부역, 4813-초지(소시)역, 4814-시우역, 4815-원시역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1285-임진강역, 1286-운천역, 1284-문산역, 1283-파주역, 1282-월롱역, 1280-금촌역, 1279-금릉역, 1278-운정역, 1277-야당역, 1276-탄현역, 1275-일산역, 1274-풍산역, 1273-백마역, 1272-곡산역, 1271-능곡역, 1270-행신역, 1269-강매역, 1268-화전역, 1267-수색역, 1266-디엠시역, 1264-홍대입구(경의선)역, 1263-서강대역, 1262-공덕(경의선)역, 1261-효창공원앞역, 1265-가좌역, 1252-신촌역, 1251-서울(경의선)역, 1201-중랑역, 1202-상봉역, 1203-망우역, 1204-양원역, 1205-구리역, 1206-도농역, 1207-양정역, 1208-덕소역, 1209-도심역, 1210-팔당역, 1211-운길산역, 1212-양수역, 1213-신원역, 1214-국수역, 1215-아신역, 1216-오빈역, 1217-양평역, 1218-원덕역, 1219-용문역, 1220-지평역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311-신내역, 1312-갈매역, 1313-별내역, 1314-퇴계원역, 1315-사릉역, 1316-금곡역, 1317-평내호평역, 1318-천마산역, 1319-마석역, 1320-대성리역, 1321-청평역, 1322-상천역, 1323-가평역, 1324-굴봉산역, 1325-백양리역, 1326-강촌역, 1327-김유정역, 1328-남춘천역, 1329-춘천역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>124-청량리(서울시립대입구),125-제기동,126-신설동,127-동묘앞,128-동대문,129-종로5가,130-종로3가,131-종각,132-시청,133-서울역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001-서울역, 1002-남영역, 1003-용산역, 1004-노량진역, 1005-대방역, 1032-신길역, 1006-영등포역, 1007-신도림역, 1701-구로역</t>
-  </si>
-  <si>
-    <t>1001-서울역, 1002-남영역, 1003-용산역, 1004-노량진역, 1005-대방역, 1032-신길역, 1006-영등포역, 1007-신도림역, 1701-구로역, 1702-가산디지털단지역, 1714-독산역, 1750-광명역, 1703-금천구청역, 1704-석수역, 1705-관악역, 1706-안양역, 1707-명학역, 1708-금정역, 1709-군포역, 1729-당정역, 1710-의왕역, 1711-성균관대역, 1712-화서역, 1713-수원역, 1715-세류역, 1716-병점역, 1749-서동탄역, 1717-세마역, 1718-오산대역, 1719-오산역, 1720-진위역, 1721-송탄역, 1722-서정리역, 1723-평택지제역, 1724-평택역, 1725-성환역, 1726-직산역, 1727-두정역, 1728-천안역, 1401-봉명역, 1402-쌍용(나사렛대)역, 1403-아산역, 1404-탕정역, 1405-배방역, 1407-온양온천역, 1408-신창(순천향대)역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1702-가산디지털단지역, 1714-독산역, 1750-광명역, 1703-금천구청역, 1704-석수역, 1705-관악역, 1706-안양역, 1707-명학역, 1708-금정역, 1709-군포역, 1729-당정역, 1710-의왕역, 1711-성균관대역, 1712-화서역, 1713-수원역, 1715-세류역, 1716-병점역, 1749-서동탄역, 1717-세마역, 1718-오산대역, 1719-오산역, 1720-진위역, 1721-송탄역, 1722-서정리역, 1723-평택지제역, 1724-평택역, 1725-성환역, 1726-직산역, 1727-두정역, 1728-천안역, 1401-봉명역, 1402-쌍용(나사렛대)역, 1403-아산역, 1404-탕정역, 1405-배방역, 1407-온양온천역, 1408-신창(순천향대)역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호선_신창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1916-소요산역, 1915-동두천역, 1914-보산역, 1913-동두천중앙역, 1912-지행역, 1911-덕정역, 1910-덕계역, 1909-양주역, 1908-녹양역, 1907-가능역, 1906-의정부역, 1905-회룡역, 1904-망월사역,  1903-도봉산역, 1902-도봉역, 1901-방학역, 1022-창동역, 1021-녹천역, 1020-월계역, 1019-광운대역, 1018-석계역, 1017-신이문역, 1016-외대앞역, 1015-회기역, 1014-청량리역,  125-제기동,126-신설동,127-동묘앞,128-동대문,129-종로5가,130-종로3가,131-종각,132-시청,133-서울역, 1002-남영역, 1003-용산역, 1004-노량진역, 1005-대방역, 1032-신길역, 1006-영등포역, 1007-신도림역, 1701-구로역, 1702-가산디지털단지역, 1714-독산역, 1750-광명역, 1703-금천구청역, 1704-석수역, 1705-관악역, 1706-안양역, 1707-명학역, 1708-금정역, 1709-군포역, 1729-당정역, 1710-의왕역, 1711-성균관대역, 1712-화서역, 1713-수원역, 1715-세류역, 1716-병점역, 1749-서동탄역, 1717-세마역, 1718-오산대역, 1719-오산역, 1720-진위역, 1721-송탄역, 1722-서정리역, 1723-평택지제역, 1724-평택역, 1725-성환역, 1726-직산역, 1727-두정역, 1728-천안역, 1401-봉명역, 1402-쌍용(나사렛대)역, 1403-아산역, 1404-탕정역, 1405-배방역, 1407-온양온천역, 1408-신창(순천향대)역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호선_인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1916-소요산역, 1915-동두천역, 1914-보산역, 1913-동두천중앙역, 1912-지행역, 1911-덕정역, 1910-덕계역, 1909-양주역, 1908-녹양역, 1907-가능역, 1906-의정부역, 1905-회룡역, 1904-망월사역,  1903-도봉산역, 1902-도봉역, 1901-방학역, 1022-창동역, 1021-녹천역, 1020-월계역, 1019-광운대역, 1018-석계역, 1017-신이문역, 1016-외대앞역, 1015-회기역, 1014-청량리역,  125-제기동,126-신설동,127-동묘앞,128-동대문,129-종로5가,130-종로3가,131-종각,132-시청,133-서울역, 1002-남영역, 1003-용산역, 1004-노량진역, 1005-대방역, 1032-신길역, 1006-영등포역, 1007-신도림역, 1701-구로역, 1813-구일역, 1801-개봉역, 1802-오류동역, 1821-온수역, 1803-역곡역, 1814-소사역, 1804-부천역, 1822-중동역, 1805-송내역, 1815-부개역, 1806-부평역, 1807-백운역, 1808-동암역, 1816-간석역, 1809-주안역, 1823-도화역, 1810-제물포역, 1817-도원역, 1811-동인천역, 1812-인천역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3호선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1958-대화역, 1957-주엽역, 1956-정발산역, 1955-마두역, 1954-백석역, 1953-대곡역, 1952-화정역, 1951-원당역, 1948-원흥역, 1950-삼송역, 319-지축,320-구파발,321-연신내,322-불광,323-녹번,324-홍제,325-무악재,326-독립문,327-경복궁(정부서울청사),328-안국,329-종로3가,330-을지로3가,331-충무로,332-동대입구,333-약수,334-금호,335-옥수,336-압구정,337-신사,338-잠원,339-고속터미널,340-교대(법원·검찰청),341-남부터미널(예술의전당),342-양재(서초구청),343-매봉,344-도곡,345-대치,346-학여울,347-대청,348-일원,349-수서,350-가락시장,351-경찰병원,352-오금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>409-당고개,410-상계,411-노원,412-창동,413-쌍문,414-수유(강북구청),415-미아,416-미아사거리,417-길음,418-성신여대입구(돈암),419-한성대입구(삼선교),420-혜화,421-동대문,422-동대문역사문화공원,423-충무로,424-명동,425-회현(남대문시장),426-서울역,427-숙대입구(갈월),428-삼각지,429-신용산,430-이촌(국립중앙박물관),431-동작(현충원),432-총신대입구(이수),433-사당,434-남태령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4호선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>405-진접, 406-오남, 408-별내별가람, 409-당고개,410-상계,411-노원,412-창동,413-쌍문,414-수유(강북구청),415-미아,416-미아사거리,417-길음,418-성신여대입구(돈암),419-한성대입구(삼선교),420-혜화,421-동대문,422-동대문역사문화공원,423-충무로,424-명동,425-회현(남대문시장),426-서울역,427-숙대입구(갈월),428-삼각지,429-신용산,430-이촌(국립중앙박물관),431-동작(현충원),432-총신대입구(이수),433-사당,434-남태령, 1450-선바위역, 1451-경마공원역, 1452-대공원역, 1453-과천역, 1454-정부과천청사역, 1455-인덕원역, 1456-평촌역, 1457-범계역, 1751-산본역, 1763-수리산역, 1752-대야미역, 1753-반월역, 1754-상록수역, 1755-한대앞역, 1756-중앙역, 1757-고잔역, 1758-초지역, 1759-안산역, 1760-신길온천역, 1761-정왕역, 1762-오이도역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7호선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9호선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4138-중앙보훈병원, 4137-둔촌오륜, 4136-올림픽공원, 4135-한성백제, 4134-송파나루, 4133-석촌, 4132-석촌고분, 4131-삼전, 4130-종합운동장,4129-봉은사, 4128-삼성중앙,4127-선정릉, 4126-언주, 4125-신논현, 4124-사평, 4123-고속터미널, 4122-신반포, 4121-구반포, 4120-동작(현충원), 4119-흑석(중앙대입구), 4118-노들, 4117-노량진, 4116-샛강, 4115-여의도, 4114-국회의사당, 4113-당산, 4112-선유도, 4111-신목동, 4110-염창, 4109-등촌, 4108-증미, 4107-가양, 4106-양천향교, 4105-마곡나루, 4104-신방화, 4103-공항시장, 4102-김포공항, 4101-개화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>709-장암,710-도봉산,711-수락산,712-마들,713-노원,714-중계,715-하계,716-공릉(서울과학기술대),717-태릉입구,718-먹골,719-중화,720-상봉(시외버스터미널),721-면목,722-사가정,723-용마산,724-중곡,725-군자(능동),726-어린이대공원(세종대),727-건대입구,728-자양,729-청담,730-강남구청,731-학동,732-논현,733-반포,734-고속터미널,735-내방,736-총신대입구(이수),737-남성,738-숭실대입구(살피재),739-상도,740-장승배기,741-신대방삼거리,742-보라매,743-신풍,744-대림(구로구청),745-남구로,746-가산디지털단지,747-철산,748-광명사거리,749-천왕,750-온수(성공회대입구), 3753-까치울역,3754-부천종합운동장역,3755-춘의역,3756-신중동역,3757-부천시청역,3758-상동역,3759-삼산체육관역,3760-굴포천역,3761-부평구청역,3762-산곡역,3763-석남역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1191,10 +1252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,6 +1323,21 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1342,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1354,7 +1430,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1369,7 +1445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1390,7 +1466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1431,7 +1507,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1458,7 +1534,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,28 +1875,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="13" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="112.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="13" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
@@ -1884,21 +1960,21 @@
         <v>44681</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="54">
       <c r="A3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="17">
         <v>63800</v>
@@ -1907,30 +1983,30 @@
         <v>39164</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J3" s="4">
         <v>45169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="17">
         <v>11400</v>
@@ -1939,62 +2015,62 @@
         <v>42980</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="J4" s="4">
         <v>44706</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F5" s="19">
         <v>33500</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="J5" s="4">
         <v>45168</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F6" s="17">
         <v>7760</v>
@@ -2003,30 +2079,30 @@
         <v>44709</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="J6" s="4">
         <v>44721</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>22</v>
@@ -2035,30 +2111,30 @@
         <v>42403</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="J7" s="4">
         <v>45078</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F8" s="17">
         <v>23670</v>
@@ -2067,30 +2143,30 @@
         <v>43736</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="J8" s="4">
         <v>45072</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F9" s="17">
         <v>14892</v>
@@ -2099,21 +2175,21 @@
         <v>44639</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="J9" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
@@ -2122,7 +2198,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F10" s="18">
         <v>7.8</v>
@@ -2140,21 +2216,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="18">
         <v>48.8</v>
@@ -2172,21 +2248,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="18">
         <v>5.4</v>
@@ -2204,21 +2280,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F13" s="18">
         <v>6</v>
@@ -2236,21 +2312,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="18">
         <v>38.200000000000003</v>
@@ -2268,12 +2344,12 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
@@ -2282,7 +2358,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="F15" s="18">
         <v>31.1</v>
@@ -2300,21 +2376,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F16" s="18">
         <v>59.8</v>
@@ -2332,21 +2408,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="18">
         <v>36.4</v>
@@ -2364,21 +2440,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F18" s="18">
         <v>46.9</v>
@@ -2396,21 +2472,21 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="F19" s="18">
         <v>17.7</v>
@@ -2428,9 +2504,9 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="108">
       <c r="A20" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2515,19 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F20" s="20">
         <v>40700</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>12</v>
@@ -2460,18 +2536,18 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2481,30 +2557,30 @@
         <v>41091</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="J21" s="4">
         <v>45173</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F22" s="17">
         <v>63800</v>
@@ -2513,30 +2589,30 @@
         <v>42734</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J22" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F23" s="17">
         <v>57000</v>
@@ -2545,30 +2621,30 @@
         <v>42637</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J23" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F24" s="17">
         <v>38800</v>
@@ -2577,30 +2653,30 @@
         <v>41090</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J24" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F25" s="17">
         <v>80700</v>
@@ -2609,30 +2685,30 @@
         <v>40533</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J25" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F26" s="17">
         <v>19200</v>
@@ -2641,30 +2717,30 @@
         <v>35094</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J26" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F27" s="17">
         <v>52900</v>
@@ -2673,30 +2749,30 @@
         <v>34578</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J27" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F28" s="17">
         <v>40400</v>
@@ -2705,30 +2781,30 @@
         <v>32441</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J28" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F29" s="17">
         <v>137800</v>
@@ -2737,30 +2813,30 @@
         <v>28833</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J29" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="17">
         <v>42900</v>
@@ -2769,30 +2845,30 @@
         <v>27256</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J30" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F31" s="17">
         <v>27000</v>
@@ -2801,30 +2877,30 @@
         <v>27256</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J31" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F32" s="17">
         <v>122900</v>
@@ -2833,30 +2909,30 @@
         <v>27256</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J32" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F33" s="17">
         <v>40300</v>
@@ -2865,30 +2941,30 @@
         <v>44317</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J33" s="4">
         <v>44804</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="F34" s="17">
         <v>7760</v>
@@ -2897,28 +2973,76 @@
         <v>44709</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="J34" s="4">
         <v>44985</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="E35" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="E36" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="E37" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E37" s="13" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="13" t="s">
         <v>197</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/assets/linemap.xlsx
+++ b/src/main/resources/assets/linemap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eun/Downloads/dev/src/main/resources/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D76D495-2BF0-CC4F-8CF4-BED99398EDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A13F2E9-B0A4-594D-930C-EF46A0C0FA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,7 +1243,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>709-장암,710-도봉산,711-수락산,712-마들,713-노원,714-중계,715-하계,716-공릉(서울과학기술대),717-태릉입구,718-먹골,719-중화,720-상봉(시외버스터미널),721-면목,722-사가정,723-용마산,724-중곡,725-군자(능동),726-어린이대공원(세종대),727-건대입구,728-자양,729-청담,730-강남구청,731-학동,732-논현,733-반포,734-고속터미널,735-내방,736-총신대입구(이수),737-남성,738-숭실대입구(살피재),739-상도,740-장승배기,741-신대방삼거리,742-보라매,743-신풍,744-대림(구로구청),745-남구로,746-가산디지털단지,747-철산,748-광명사거리,749-천왕,750-온수(성공회대입구), 3753-까치울역,3754-부천종합운동장역,3755-춘의역,3756-신중동역,3757-부천시청역,3758-상동역,3759-삼산체육관역,3760-굴포천역,3761-부평구청역,3762-산곡역,3763-석남역</t>
+    <t>709-장암,710-도봉산,711-수락산,712-마들,713-노원,714-중계,715-하계,716-공릉(서울과학기술대),717-태릉입구,718-먹골,719-중화,720-상봉(시외버스터미널),721-면목,722-사가정,723-용마산,724-중곡,725-군자(능동),726-어린이대공원(세종대),727-건대입구,728-자양,729-청담,730-강남구청,731-학동,732-논현,733-반포,734-고속터미널,735-내방,736-이수,737-남성,738-숭실대입구(살피재),739-상도,740-장승배기,741-신대방삼거리,742-보라매,743-신풍,744-대림(구로구청),745-남구로,746-가산디지털단지,747-철산,748-광명사거리,749-천왕,750-온수(성공회대입구), 3753-까치울역,3754-부천종합운동장역,3755-춘의역,3756-신중동역,3757-부천시청역,3758-상동역,3759-삼산체육관역,3760-굴포천역,3761-부평구청역,3762-산곡역,3763-석남역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1960,7 +1960,7 @@
         <v>44681</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="54">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="36">
       <c r="A3" s="2" t="s">
         <v>164</v>
       </c>

--- a/src/main/resources/assets/linemap.xlsx
+++ b/src/main/resources/assets/linemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eun/Downloads/dev/src/main/resources/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A13F2E9-B0A4-594D-930C-EF46A0C0FA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05416316-12BF-9C48-BF71-EB7EC54464A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
